--- a/20150211_Japanese/20150210_Practice/23.xlsx
+++ b/20150211_Japanese/20150210_Practice/23.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
   <si>
     <t>２３課</t>
   </si>
@@ -262,21 +262,9 @@
     <t>１）</t>
   </si>
   <si>
-    <t>あそびに行くでもいいですか。</t>
-  </si>
-  <si>
-    <t>いいえ、明日テストがあるからあそびに行くてはいけません。</t>
-  </si>
-  <si>
     <t>２）</t>
   </si>
   <si>
-    <t>旅行をするでもいですか。</t>
-  </si>
-  <si>
-    <t>いいえ、大切な会議があるから旅行をするてはいけません。</t>
-  </si>
-  <si>
     <t>学校へ行かなければなりません。</t>
   </si>
   <si>
@@ -335,6 +323,184 @@
   </si>
   <si>
     <t>サインを忘れてはいけません。</t>
+  </si>
+  <si>
+    <t>Vては</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ては</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>では</t>
+    </r>
+  </si>
+  <si>
+    <t>Nでは</t>
+  </si>
+  <si>
+    <t>いけません／だめでせ。</t>
+  </si>
+  <si>
+    <t>Cấm không được</t>
+  </si>
+  <si>
+    <t>あそびに行ってもいいですか。</t>
+  </si>
+  <si>
+    <t>いいえ、明日テストがあるからあそびに行ってはいけません。</t>
+  </si>
+  <si>
+    <t>旅行をしてもいですか。</t>
+  </si>
+  <si>
+    <t>いいえ、大切な会議があるから旅行をしてはいけません。</t>
+  </si>
+  <si>
+    <t>パーティーの部屋は暗くてもいいですか。</t>
+  </si>
+  <si>
+    <t>いいえ、暗てはいけません。</t>
+  </si>
+  <si>
+    <t>明るくなければなりません。</t>
+  </si>
+  <si>
+    <t>４）</t>
+  </si>
+  <si>
+    <t>子供の学校は家から遠くてもいですか。</t>
+  </si>
+  <si>
+    <t>いいえ、遠くてはいけません。</t>
+  </si>
+  <si>
+    <t>近くなければなりません。</t>
+  </si>
+  <si>
+    <t>５）</t>
+  </si>
+  <si>
+    <t>テストの時、使うCDは古いCDでもいいですか。</t>
+  </si>
+  <si>
+    <t>いいえ、古いCDではいけません。</t>
+  </si>
+  <si>
+    <t>新しいCDでなけらばなりません。</t>
+  </si>
+  <si>
+    <t>６）</t>
+  </si>
+  <si>
+    <t>通訳は話し方が下手でもいいですか。</t>
+  </si>
+  <si>
+    <t>いいえ、話し方がへたではいけません。</t>
+  </si>
+  <si>
+    <t>話し方が上手でなければなりません。</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B１</t>
+  </si>
+  <si>
+    <t>海で泳ぐ前に、ストレッチをしなければなりません。</t>
+  </si>
+  <si>
+    <t>通訳になる前に、勉強しなければなりません。</t>
+  </si>
+  <si>
+    <t>結婚する前に、家族に紹介しなければなりません。</t>
+  </si>
+  <si>
+    <t>手紙を出す前に、住所を書くなければなりません。</t>
+  </si>
+  <si>
+    <t>B２</t>
+  </si>
+  <si>
+    <t>ちょっとすみません。</t>
+  </si>
+  <si>
+    <t>はい、何でしょうか。</t>
+  </si>
+  <si>
+    <t>B１：</t>
+  </si>
+  <si>
+    <t>B２：</t>
+  </si>
+  <si>
+    <t>あ、そうですね。どうも．．．</t>
+  </si>
+  <si>
+    <t>はい、払なければなりません。</t>
+  </si>
+  <si>
+    <t>いいえ、払なくてもいいです。</t>
+  </si>
+  <si>
+    <t>あのい、サインをする時、カタカナを使わなければなりませんか。</t>
+  </si>
+  <si>
+    <t>あのい、図書館で本を借りれる時、お金を払わなければなりませんか。</t>
+  </si>
+  <si>
+    <t>はい、カタカナを使わなければなりません。</t>
+  </si>
+  <si>
+    <t>いいえ、カタカナを使わなくてもいいです。</t>
+  </si>
+  <si>
+    <t>あのい、飛行機のチケットを買う時、パスポートを見せなければなりませんか。</t>
+  </si>
+  <si>
+    <t>はい、パスポートを見せなければなりません</t>
+  </si>
+  <si>
+    <t>いいえ、パスポートを見せなくてもいいです。</t>
   </si>
 </sst>
 </file>
@@ -376,7 +542,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -384,13 +550,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,293 +947,815 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="1" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="1" t="s">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="1" t="s">
-        <v>52</v>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/20150211_Japanese/20150210_Practice/23.xlsx
+++ b/20150211_Japanese/20150210_Practice/23.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="２２か" sheetId="4" r:id="rId1"/>
+    <sheet name="２３か" sheetId="1" r:id="rId2"/>
+    <sheet name="２４か" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>２３課</t>
   </si>
@@ -502,12 +502,159 @@
   <si>
     <t>いいえ、パスポートを見せなくてもいいです。</t>
   </si>
+  <si>
+    <t>２４課</t>
+  </si>
+  <si>
+    <t>２２課</t>
+  </si>
+  <si>
+    <t>１．</t>
+  </si>
+  <si>
+    <t>Nが欲しいです</t>
+  </si>
+  <si>
+    <t>Nが欲しくないです</t>
+  </si>
+  <si>
+    <t>Muốn</t>
+  </si>
+  <si>
+    <t>Không muốn</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>たいです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>たくないです。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>が</t>
+  </si>
+  <si>
+    <t>上手</t>
+  </si>
+  <si>
+    <t>下手</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>こと</t>
+    </r>
+  </si>
+  <si>
+    <t>Giỏi việc gì</t>
+  </si>
+  <si>
+    <t>Tệ việc gì</t>
+  </si>
+  <si>
+    <t>好き</t>
+  </si>
+  <si>
+    <t>きらい</t>
+  </si>
+  <si>
+    <t>Thích việc gì đó</t>
+  </si>
+  <si>
+    <t>Ghét việc gì đó</t>
+  </si>
+  <si>
+    <t>N１の中で（は）N２が一番</t>
+  </si>
+  <si>
+    <t>です。</t>
+  </si>
+  <si>
+    <t>Thích nhất N2 trong N1</t>
+  </si>
+  <si>
+    <t>Ghét nhất N2 trong N1</t>
+  </si>
+  <si>
+    <t>私はふとんが欲しいです。</t>
+  </si>
+  <si>
+    <t>私はいすが欲しいです。</t>
+  </si>
+  <si>
+    <t>私はプレートが欲しいです。</t>
+  </si>
+  <si>
+    <t>私はガラスが欲しいです。</t>
+  </si>
+  <si>
+    <t>私はガデスクが欲しいです。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,13 +680,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -634,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -646,6 +805,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,10 +1109,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1764,26 +2369,291 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20150211_Japanese/20150210_Practice/23.xlsx
+++ b/20150211_Japanese/20150210_Practice/23.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="143">
   <si>
     <t>２３課</t>
   </si>
@@ -648,6 +648,63 @@
   </si>
   <si>
     <t>私はガデスクが欲しいです。</t>
+  </si>
+  <si>
+    <t>私は家へ帰りたいです。</t>
+  </si>
+  <si>
+    <t>私は友達と会ったいです。</t>
+  </si>
+  <si>
+    <t>私は映画を見たいです。</t>
+  </si>
+  <si>
+    <t>私は買い物を買った医です。</t>
+  </si>
+  <si>
+    <t>私はシャワーを浴びたいです。</t>
+  </si>
+  <si>
+    <t>一緒にビールとワインを飲みませんか。</t>
+  </si>
+  <si>
+    <t>いいえ、飲みたくないです。</t>
+  </si>
+  <si>
+    <t>一緒にゲームをしませんか。</t>
+  </si>
+  <si>
+    <t>いいえ、したくないです。</t>
+  </si>
+  <si>
+    <t>一緒に映画を見ませんか。</t>
+  </si>
+  <si>
+    <t>いいえ、見たくないです。</t>
+  </si>
+  <si>
+    <t>一緒にビリヤードをしませんか。</t>
+  </si>
+  <si>
+    <t>一緒に服を試しませんか。</t>
+  </si>
+  <si>
+    <t>いいえ、試したくないです。</t>
+  </si>
+  <si>
+    <t>A４</t>
+  </si>
+  <si>
+    <t>私は音楽を聞くことが好きです。</t>
+  </si>
+  <si>
+    <t>私は映画を見ることが嫌いです。</t>
+  </si>
+  <si>
+    <t>私はすしが好きです。</t>
+  </si>
+  <si>
+    <t>テニスをすることが嫌いです。</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1544,6 +1601,182 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1554,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:C25"/>
     </sheetView>
   </sheetViews>
@@ -2373,7 +2606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>

--- a/20150211_Japanese/20150210_Practice/23.xlsx
+++ b/20150211_Japanese/20150210_Practice/23.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="２２か" sheetId="4" r:id="rId1"/>
-    <sheet name="２３か" sheetId="1" r:id="rId2"/>
-    <sheet name="２４か" sheetId="2" r:id="rId3"/>
+    <sheet name="２０か" sheetId="7" r:id="rId1"/>
+    <sheet name="２１か" sheetId="6" r:id="rId2"/>
+    <sheet name="２２か" sheetId="4" r:id="rId3"/>
+    <sheet name="２３か" sheetId="1" r:id="rId4"/>
+    <sheet name="２４か" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="261">
   <si>
     <t>２３課</t>
   </si>
@@ -706,12 +708,366 @@
   <si>
     <t>テニスをすることが嫌いです。</t>
   </si>
+  <si>
+    <t>A５</t>
+  </si>
+  <si>
+    <t>食べ物で何がいちばん好きですか。</t>
+  </si>
+  <si>
+    <t>てんぶらが一番すきです。</t>
+  </si>
+  <si>
+    <t>れい</t>
+  </si>
+  <si>
+    <t>飲み物で何がいちばん好きですか。</t>
+  </si>
+  <si>
+    <t>コーヒーが一番好きです。</t>
+  </si>
+  <si>
+    <t>フルーツで何がいちばん好きですか。</t>
+  </si>
+  <si>
+    <t>バナナが一番好きです。</t>
+  </si>
+  <si>
+    <t>スポーツで何が一番好きですか。</t>
+  </si>
+  <si>
+    <t>柔道が一番好きです。</t>
+  </si>
+  <si>
+    <t>学生食堂で何が一番おいしいですか。</t>
+  </si>
+  <si>
+    <t>ケーキが一番おいしいです。</t>
+  </si>
+  <si>
+    <t>季節で何が一番好きですか。</t>
+  </si>
+  <si>
+    <t>夏が一番好きです。</t>
+  </si>
+  <si>
+    <t>家族で誰が一番背が高いですか。</t>
+  </si>
+  <si>
+    <t>兄が一番背が高いです。</t>
+  </si>
+  <si>
+    <t>学校でどこが一番静かですか。</t>
+  </si>
+  <si>
+    <t>トイレが一番静かです。</t>
+  </si>
+  <si>
+    <t>（B）さんは今何が一番欲しいですか。</t>
+  </si>
+  <si>
+    <t>お金が一番欲しいです。</t>
+  </si>
+  <si>
+    <t>どんなお金が欲しいですか。</t>
+  </si>
+  <si>
+    <t>日本のお金が欲しいです。</t>
+  </si>
+  <si>
+    <t>ハウスが一番欲しいです。</t>
+  </si>
+  <si>
+    <t>どんなハウスが欲しいですか。</t>
+  </si>
+  <si>
+    <t>大ハウスが欲しいです。</t>
+  </si>
+  <si>
+    <t>ヨットが一番欲しいです。</t>
+  </si>
+  <si>
+    <t>どんなヨットが欲しいですか。</t>
+  </si>
+  <si>
+    <t>きれいヨットが欲しいです。</t>
+  </si>
+  <si>
+    <t>車が一番欲しいです。</t>
+  </si>
+  <si>
+    <t>どんな車が欲しいですか。</t>
+  </si>
+  <si>
+    <t>TOYOTAの車が欲しいです。</t>
+  </si>
+  <si>
+    <t>（B）さんの友達は絵が好きですか。</t>
+  </si>
+  <si>
+    <t>はい、好きです。</t>
+  </si>
+  <si>
+    <t>誰の絵が好きですけ。</t>
+  </si>
+  <si>
+    <t>PICASOの絵が好きです。</t>
+  </si>
+  <si>
+    <t>（B）さんの兄は歌が好きですか。</t>
+  </si>
+  <si>
+    <t>いいえ、好きではありません。</t>
+  </si>
+  <si>
+    <t>そうですか。</t>
+  </si>
+  <si>
+    <t>（B）さんのお父さんはゲームが好きですか。</t>
+  </si>
+  <si>
+    <t>よくどんなゲームが好きですけ。</t>
+  </si>
+  <si>
+    <t>Red Alertゲームが好きです。</t>
+  </si>
+  <si>
+    <t>B３</t>
+  </si>
+  <si>
+    <t>（B）さん、私の国へ来ませんか。</t>
+  </si>
+  <si>
+    <t>いいですね、どくが一番きれいですか。</t>
+  </si>
+  <si>
+    <t>パリが一番きれいです。</t>
+  </si>
+  <si>
+    <t>いいですね、何が一番有名ですか。</t>
+  </si>
+  <si>
+    <t>ワインが一番有名です。</t>
+  </si>
+  <si>
+    <t>いいですね、何が一番おいしいですか。</t>
+  </si>
+  <si>
+    <t>PHOが一番おいしいです。</t>
+  </si>
+  <si>
+    <t>いいですね、どこが一番賑やかですか。</t>
+  </si>
+  <si>
+    <t>ホチミンーシが一番賑やかです。</t>
+  </si>
+  <si>
+    <t>B４</t>
+  </si>
+  <si>
+    <t>いいえ、嫌いです。</t>
+  </si>
+  <si>
+    <t>野菜が好きですか。</t>
+  </si>
+  <si>
+    <t>漫画が好きですか。</t>
+  </si>
+  <si>
+    <t>いいえ、あまり好きではありません。</t>
+  </si>
+  <si>
+    <t>猫が好きですか。</t>
+  </si>
+  <si>
+    <t>掃除が好きですか。</t>
+  </si>
+  <si>
+    <t>２１課</t>
+  </si>
+  <si>
+    <t>これは家の近くケーキやです。</t>
+  </si>
+  <si>
+    <t>家の近くケーキやは古いです。</t>
+  </si>
+  <si>
+    <t>これ日本に送信する手紙です。</t>
+  </si>
+  <si>
+    <t>日本に送信するはマイさんのです。</t>
+  </si>
+  <si>
+    <t>これは日本語を勉強するせんせいです。</t>
+  </si>
+  <si>
+    <t>日本語を勉強するせんせいは日本人です。</t>
+  </si>
+  <si>
+    <t>これは姉があけるプレゼントです。</t>
+  </si>
+  <si>
+    <t>姉が明けるプレゼントは日本製です。</t>
+  </si>
+  <si>
+    <t>友達とバドミントンをしている公園はきれいです。</t>
+  </si>
+  <si>
+    <t>ここは友達とバドミントンをしている公園です。</t>
+  </si>
+  <si>
+    <t>ここはきのう買い物を買っているスーパーマーケットです。</t>
+  </si>
+  <si>
+    <t>きのう買い物を買っているスーパーマーケットは有名です。。</t>
+  </si>
+  <si>
+    <t>これは友達があげている本です。</t>
+  </si>
+  <si>
+    <t>友達があげている本は面白いです。</t>
+  </si>
+  <si>
+    <t>ここは試験をしている居室です。</t>
+  </si>
+  <si>
+    <t>試験をしている居室は１階にあるです。</t>
+  </si>
+  <si>
+    <t>ここは母が買っている自転車です。</t>
+  </si>
+  <si>
+    <t>母が買っている自転車は大好きです。。</t>
+  </si>
+  <si>
+    <t>ここはコーヒーを買っている喫茶店です。</t>
+  </si>
+  <si>
+    <t>コーヒーを買っている喫茶店は静かです。</t>
+  </si>
+  <si>
+    <t>ばんを食べながら新聞を読みます</t>
+  </si>
+  <si>
+    <t>歌を歌いながらピアノをします。</t>
+  </si>
+  <si>
+    <t>歌を歌いながら散歩します。</t>
+  </si>
+  <si>
+    <t>音楽を聞きながら掃除します。</t>
+  </si>
+  <si>
+    <t>ドレスを着てみます。</t>
+  </si>
+  <si>
+    <t>眼鏡を着てみます。</t>
+  </si>
+  <si>
+    <t>帽子をかばてみます。</t>
+  </si>
+  <si>
+    <t>履物を着てみます。</t>
+  </si>
+  <si>
+    <t>マイさんは今ズボンを脱いでいます。</t>
+  </si>
+  <si>
+    <t>マイさんは今ズボンをはいています。</t>
+  </si>
+  <si>
+    <t>マイさんは今帽子をかばています。</t>
+  </si>
+  <si>
+    <t>マイさんは今帽子をとています。</t>
+  </si>
+  <si>
+    <t>マイさんは今ゆびわをしています。</t>
+  </si>
+  <si>
+    <t>マイさんは今ゆびわをとています。</t>
+  </si>
+  <si>
+    <t>マイさんは今めがねをとています。</t>
+  </si>
+  <si>
+    <t>マイさんは今めがねをかけています。</t>
+  </si>
+  <si>
+    <t>マイさんは今ネクタイをしめています。</t>
+  </si>
+  <si>
+    <t>マイさんは今ネクタイをとています。</t>
+  </si>
+  <si>
+    <t>マイさんは今かばんを持つています。</t>
+  </si>
+  <si>
+    <t>２０課</t>
+  </si>
+  <si>
+    <t>あの人は料理が上手と思います。</t>
+  </si>
+  <si>
+    <t>あの人は厳しい人と思います。</t>
+  </si>
+  <si>
+    <t>あの人はちゃんとと思います。</t>
+  </si>
+  <si>
+    <t>この人は練習をしていると思います。</t>
+  </si>
+  <si>
+    <t>この人は学校へ行っていると思います。</t>
+  </si>
+  <si>
+    <t>この人は会社へ行っていると思います。</t>
+  </si>
+  <si>
+    <t>この人は映画を見ていると思います。</t>
+  </si>
+  <si>
+    <t>お医者さんはインフルエンザではあると言いました。</t>
+  </si>
+  <si>
+    <t>お医者さんはシャワーを浴びないと言いました。</t>
+  </si>
+  <si>
+    <t>お医者さんはすぐ治ると言いました。</t>
+  </si>
+  <si>
+    <t>お医者さんは学校へ行くと言いました。</t>
+  </si>
+  <si>
+    <t>お医者さんは運動しないと言いました。</t>
+  </si>
+  <si>
+    <t>この漢字はなにと読みますか。</t>
+  </si>
+  <si>
+    <t>花は英語で何と言いますか。</t>
+  </si>
+  <si>
+    <t>Thank youは日本語で何と言いますか。</t>
+  </si>
+  <si>
+    <t>病院へ行く時、保険証を忘れないでください。</t>
+  </si>
+  <si>
+    <t>散歩する時、いつもカメラを持つて行きます。</t>
+  </si>
+  <si>
+    <t>漢字が分かれません時、この辞書を使います。</t>
+  </si>
+  <si>
+    <t>ご飯を食べた時、「いただきます」と言います。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,6 +1096,13 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -850,7 +1213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -865,6 +1228,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,10 +1530,711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="D18" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+      <c r="D22" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+      <c r="D24" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1777,17 +2842,613 @@
         <v>142</v>
       </c>
     </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:C25"/>
     </sheetView>
   </sheetViews>
@@ -2602,11 +4263,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2615,276 +4278,69 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20150211_Japanese/20150210_Practice/23.xlsx
+++ b/20150211_Japanese/20150210_Practice/23.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="272">
   <si>
     <t>２３課</t>
   </si>
@@ -1061,6 +1061,39 @@
   </si>
   <si>
     <t>ご飯を食べた時、「いただきます」と言います。</t>
+  </si>
+  <si>
+    <t>寝た時、「おやすみなさい」と言います。</t>
+  </si>
+  <si>
+    <t>家へ帰らた時、「さよなら」と言います。</t>
+  </si>
+  <si>
+    <t>部屋に入った時、「しつれいします」と言います。</t>
+  </si>
+  <si>
+    <t>私は電気を消しました。</t>
+  </si>
+  <si>
+    <t>私はかばんから本を出しました。</t>
+  </si>
+  <si>
+    <t>私は部屋を暗くしました。</t>
+  </si>
+  <si>
+    <t>私はかばんが軽く増した。</t>
+  </si>
+  <si>
+    <t>長い間英語を勉強しましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、３週間しか英語を勉強しませんでした。</t>
+  </si>
+  <si>
+    <t>長い間日本にいりましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、一ヶ月日本にいりませんでした。</t>
   </si>
 </sst>
 </file>
@@ -4265,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -4278,17 +4311,17 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4296,7 +4329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
@@ -4307,7 +4340,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
@@ -4315,7 +4348,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
@@ -4323,7 +4356,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -4334,12 +4367,98 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/20150211_Japanese/20150210_Practice/23.xlsx
+++ b/20150211_Japanese/20150210_Practice/23.xlsx
@@ -1,24 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20730" windowHeight="10050" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="２０か" sheetId="7" r:id="rId1"/>
-    <sheet name="２１か" sheetId="6" r:id="rId2"/>
-    <sheet name="２２か" sheetId="4" r:id="rId3"/>
-    <sheet name="２３か" sheetId="1" r:id="rId4"/>
-    <sheet name="２４か" sheetId="2" r:id="rId5"/>
+    <sheet name="１４か" sheetId="9" r:id="rId1"/>
+    <sheet name="１５か" sheetId="8" r:id="rId2"/>
+    <sheet name="１６か" sheetId="10" r:id="rId3"/>
+    <sheet name="１７か" sheetId="11" r:id="rId4"/>
+    <sheet name="１８か" sheetId="12" r:id="rId5"/>
+    <sheet name="１９か" sheetId="13" r:id="rId6"/>
+    <sheet name="２０か" sheetId="7" r:id="rId7"/>
+    <sheet name="２１か" sheetId="6" r:id="rId8"/>
+    <sheet name="２２か" sheetId="4" r:id="rId9"/>
+    <sheet name="２３か" sheetId="1" r:id="rId10"/>
+    <sheet name="２４か" sheetId="2" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_ftn1" localSheetId="0">１４か!#REF!</definedName>
+    <definedName name="_ftn1" localSheetId="1">１５か!#REF!</definedName>
+    <definedName name="_ftn1" localSheetId="2">１６か!#REF!</definedName>
+    <definedName name="_ftn1" localSheetId="3">１７か!#REF!</definedName>
+    <definedName name="_ftn1" localSheetId="4">１８か!#REF!</definedName>
+    <definedName name="_ftn1" localSheetId="5">１９か!#REF!</definedName>
+    <definedName name="_ftn2" localSheetId="0">１４か!$B$2</definedName>
+    <definedName name="_ftn2" localSheetId="1">１５か!$B$18</definedName>
+    <definedName name="_ftn2" localSheetId="2">１６か!$B$13</definedName>
+    <definedName name="_ftn2" localSheetId="3">１７か!$B$11</definedName>
+    <definedName name="_ftn2" localSheetId="4">１８か!$B$11</definedName>
+    <definedName name="_ftn2" localSheetId="5">１９か!$B$8</definedName>
+    <definedName name="_ftn3" localSheetId="0">１４か!$B$3</definedName>
+    <definedName name="_ftn3" localSheetId="1">１５か!$B$19</definedName>
+    <definedName name="_ftn3" localSheetId="2">１６か!$B$14</definedName>
+    <definedName name="_ftn3" localSheetId="3">１７か!$B$12</definedName>
+    <definedName name="_ftn3" localSheetId="4">１８か!$B$12</definedName>
+    <definedName name="_ftn3" localSheetId="5">１９か!$B$9</definedName>
+    <definedName name="_ftn4" localSheetId="0">１４か!$B$2</definedName>
+    <definedName name="_ftn4" localSheetId="1">１５か!$B$18</definedName>
+    <definedName name="_ftn4" localSheetId="2">１６か!$B$13</definedName>
+    <definedName name="_ftn4" localSheetId="3">１７か!$B$11</definedName>
+    <definedName name="_ftn4" localSheetId="4">１８か!$B$11</definedName>
+    <definedName name="_ftn4" localSheetId="5">１９か!$B$8</definedName>
+    <definedName name="_ftn5" localSheetId="0">１４か!$B$3</definedName>
+    <definedName name="_ftn5" localSheetId="1">１５か!$B$19</definedName>
+    <definedName name="_ftn5" localSheetId="2">１６か!$B$14</definedName>
+    <definedName name="_ftn5" localSheetId="3">１７か!$B$12</definedName>
+    <definedName name="_ftn5" localSheetId="4">１８か!$B$12</definedName>
+    <definedName name="_ftn5" localSheetId="5">１９か!$B$9</definedName>
+    <definedName name="_ftn6" localSheetId="0">１４か!$B$4</definedName>
+    <definedName name="_ftn6" localSheetId="1">１５か!$B$20</definedName>
+    <definedName name="_ftn6" localSheetId="2">１６か!$B$15</definedName>
+    <definedName name="_ftn6" localSheetId="3">１７か!$B$13</definedName>
+    <definedName name="_ftn6" localSheetId="4">１８か!$B$13</definedName>
+    <definedName name="_ftn6" localSheetId="5">１９か!$B$10</definedName>
+    <definedName name="_ftnref1" localSheetId="0">１４か!$C$1</definedName>
+    <definedName name="_ftnref1" localSheetId="1">１５か!$C$1</definedName>
+    <definedName name="_ftnref1" localSheetId="2">１６か!$C$1</definedName>
+    <definedName name="_ftnref1" localSheetId="3">１７か!$C$1</definedName>
+    <definedName name="_ftnref1" localSheetId="4">１８か!$C$1</definedName>
+    <definedName name="_ftnref1" localSheetId="5">１９か!$C$1</definedName>
+    <definedName name="_ftnref6" localSheetId="0">１４か!#REF!</definedName>
+    <definedName name="_ftnref6" localSheetId="1">１５か!$C$13</definedName>
+    <definedName name="_ftnref6" localSheetId="2">１６か!#REF!</definedName>
+    <definedName name="_ftnref6" localSheetId="3">１７か!#REF!</definedName>
+    <definedName name="_ftnref6" localSheetId="4">１８か!#REF!</definedName>
+    <definedName name="_ftnref6" localSheetId="5">１９か!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="632">
   <si>
     <t>２３課</t>
   </si>
@@ -859,9 +915,6 @@
     <t>いいですね、どこが一番賑やかですか。</t>
   </si>
   <si>
-    <t>ホチミンーシが一番賑やかです。</t>
-  </si>
-  <si>
     <t>B４</t>
   </si>
   <si>
@@ -1094,13 +1147,1116 @@
   </si>
   <si>
     <t>いいえ、一ヶ月日本にいりませんでした。</t>
+  </si>
+  <si>
+    <t>この池には匹がおおぜいいますか。</t>
+  </si>
+  <si>
+    <t>いいえ、２匹しかいません。</t>
+  </si>
+  <si>
+    <t>この会社にはコピー機がおおぜいいますか。</t>
+  </si>
+  <si>
+    <t>いいえ、１台しかいません。</t>
+  </si>
+  <si>
+    <t>お金をたくさん払えましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、１００００ドン払えませんでした。</t>
+  </si>
+  <si>
+    <t>テキストの言葉をぜんぶ覚えしましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、半分覚えませんでした。</t>
+  </si>
+  <si>
+    <t>７）</t>
+  </si>
+  <si>
+    <t>コーヒーを飲みますか。</t>
+  </si>
+  <si>
+    <t>いいえ、マイさんしか飲みません。</t>
+  </si>
+  <si>
+    <t>８）</t>
+  </si>
+  <si>
+    <t>夏休みに田舎へ帰りますか。</t>
+  </si>
+  <si>
+    <t>いいえ、ナムさんしか帰りません。</t>
+  </si>
+  <si>
+    <t>９）</t>
+  </si>
+  <si>
+    <t>みんなと会いましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、ロンさんにしか会いませんでした。</t>
+  </si>
+  <si>
+    <t>１０）</t>
+  </si>
+  <si>
+    <t>みんなからプレゼントを貰えましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、父にしか貰えませんでした。</t>
+  </si>
+  <si>
+    <t>１１）</t>
+  </si>
+  <si>
+    <t>色々な所へ買い物に行きましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、家の近くのスーパーにしか行きませんでした。</t>
+  </si>
+  <si>
+    <t>１２）</t>
+  </si>
+  <si>
+    <t>色々な乗り物に乗りましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、バイクにしか乗りませんでした。</t>
+  </si>
+  <si>
+    <t>マイさんはもういなかへ帰りましたか。</t>
+  </si>
+  <si>
+    <t>ホーチミンシーが一番賑やかです。</t>
+  </si>
+  <si>
+    <t>アリさんはもういなかへ帰りましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、まだ帰っていません。まだホーチミンにいます。</t>
+  </si>
+  <si>
+    <t>はい、もういなかへ帰りました。もうホーチミンにいません。</t>
+  </si>
+  <si>
+    <t>マイさんはもう外出すしましたか。</t>
+  </si>
+  <si>
+    <t>はい、もう外出すしました。もう部屋にいません。</t>
+  </si>
+  <si>
+    <t>アリさんはもう外出すしましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、まだ外出すていません。まだ部屋にいます。</t>
+  </si>
+  <si>
+    <t>マイさんはもう寝ましたか。</t>
+  </si>
+  <si>
+    <t>はい、もう寝ました。もう食堂にいません。</t>
+  </si>
+  <si>
+    <t>アリさんはもう寝ましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、まだ寝ていません。まだ食堂にいます。</t>
+  </si>
+  <si>
+    <t>マイさんはもう日本へ行きましたか。</t>
+  </si>
+  <si>
+    <t>はい、もう行きました。もうベトナムにいません。</t>
+  </si>
+  <si>
+    <t>アリさんはもう日本へ行きましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、まだ行っていません。まだベトナムにいます。</t>
+  </si>
+  <si>
+    <t>病気になった時、どんなことをしなければなりませんか。</t>
+  </si>
+  <si>
+    <t>薬を飲んで、寝なければなりません。</t>
+  </si>
+  <si>
+    <t>例</t>
+  </si>
+  <si>
+    <t>海外旅行へ行った時、どんなことをしなければなりませんか。</t>
+  </si>
+  <si>
+    <t>映画館へ行った時、どんなことをしなければなりませんか。</t>
+  </si>
+  <si>
+    <t>お金を持ちなければなりません。</t>
+  </si>
+  <si>
+    <t>パスポートとカメラを持ちなければなりません。</t>
+  </si>
+  <si>
+    <t>薬はまだありますか。</t>
+  </si>
+  <si>
+    <t>いいえ、もうありません。</t>
+  </si>
+  <si>
+    <t>じゃ、あとで買いに行きますね。</t>
+  </si>
+  <si>
+    <t>お願いします。</t>
+  </si>
+  <si>
+    <t>チョークはまだありますか。</t>
+  </si>
+  <si>
+    <t>じゃ、あとで事務所へもらいに行きますね。</t>
+  </si>
+  <si>
+    <t>おかしはまだありますか。</t>
+  </si>
+  <si>
+    <t>お茶はまだありますか。</t>
+  </si>
+  <si>
+    <t>じゃ、あとで食堂へ取りに行きますね。</t>
+  </si>
+  <si>
+    <t>１５課</t>
+  </si>
+  <si>
+    <t>試験はいつかまだ分かりません</t>
+  </si>
+  <si>
+    <t>１２の教室で会話の試験があります。</t>
+  </si>
+  <si>
+    <t>学校でパーティーがあります。</t>
+  </si>
+  <si>
+    <t>タオダン公園で花いちばがあります。</t>
+  </si>
+  <si>
+    <t>①</t>
+  </si>
+  <si>
+    <t>場所で　Nがあります。</t>
+  </si>
+  <si>
+    <t>来年たぶん日本へ行くでしょう。</t>
+  </si>
+  <si>
+    <t>今年の冬は寒くないでしょう。</t>
+  </si>
+  <si>
+    <t>Sapaの冬はきれいでしょう。</t>
+  </si>
+  <si>
+    <t>夏休みに田舎へ帰りないでしょう。</t>
+  </si>
+  <si>
+    <t>今年の 冬は寒いでしょう。</t>
+  </si>
+  <si>
+    <t>Sapaの冬は気温は５度ぐらいでしょう。</t>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <t>（たぶん）～でしょう　→　maybe/50% happen</t>
+  </si>
+  <si>
+    <t>私はマイさんが何時ごる忙しいか、分かりません。</t>
+  </si>
+  <si>
+    <t>私はマイさんが今日忙しいかどうか、分かりません。</t>
+  </si>
+  <si>
+    <t>③</t>
+  </si>
+  <si>
+    <t>～か「～ないか／どうか」、分かりません。</t>
+  </si>
+  <si>
+    <t>せんだいは寒いでしょう</t>
+  </si>
+  <si>
+    <t>とうきょうはなみが高いでしょう。</t>
+  </si>
+  <si>
+    <t>なごやは風が強いでしょう。</t>
+  </si>
+  <si>
+    <t>おおさかはくもりでしょう。</t>
+  </si>
+  <si>
+    <t>Nは晴れるでしょう。</t>
+  </si>
+  <si>
+    <t>なはは雨があるでしょう、ゆうがタ方やみなります。</t>
+  </si>
+  <si>
+    <t>A:ありがとうございました。</t>
+  </si>
+  <si>
+    <t>B:よく分かりませんが、たぶん１０時ごろ「始まる」でしょう。</t>
+  </si>
+  <si>
+    <t>A:すみません、「あの店」は何時に「始まります」か。</t>
+  </si>
+  <si>
+    <t>B:よく分かりませんが、たぶん１０時ごろ「終わる」でしょう。</t>
+  </si>
+  <si>
+    <t>A:すみません、「テニスのしあい」は何時に「終わります」か。</t>
+  </si>
+  <si>
+    <t>A:すみません、「事務所のひと」は何時に「来ます」か。</t>
+  </si>
+  <si>
+    <t>B:よく分かりませんが、たぶん１０時ごろ「来る」でしょう。</t>
+  </si>
+  <si>
+    <t>＜難しい＞</t>
+  </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>もしもし、ロンです。こんばんは。</t>
+  </si>
+  <si>
+    <t>マイさんも行きますか。</t>
+  </si>
+  <si>
+    <t>B:</t>
+  </si>
+  <si>
+    <t>はい、行きます。</t>
+  </si>
+  <si>
+    <t>来週、「学校」でパーティーがありますね。</t>
+  </si>
+  <si>
+    <t>では、「５時」ごろー緒に行きましょう。</t>
+  </si>
+  <si>
+    <t>来週、「大使館[1]」でパーティーがありますね。</t>
+  </si>
+  <si>
+    <t>では、「４時」ごろー緒に行きましょう。</t>
+  </si>
+  <si>
+    <t>来週、「先生の家」でパーティーがありますね。</t>
+  </si>
+  <si>
+    <t>では、「７時半」ごろー緒に行きましょう。</t>
+  </si>
+  <si>
+    <t>A: あの　バスはレバンタム公園へ行きますか。</t>
+  </si>
+  <si>
+    <t>B：さぁ、行くかどうか、分かりません。聞きに行きましょう。</t>
+  </si>
+  <si>
+    <t>A: あの　バスは何時に出ますか。</t>
+  </si>
+  <si>
+    <t>B：さぁ、何時に出るか、分かりません。聞きに行きましょう。</t>
+  </si>
+  <si>
+    <t>B：さぁ、何番かどうか、分かりません。聞きに行きましょう。</t>
+  </si>
+  <si>
+    <t>A: ベンタンいちばのバスは何番ですか。</t>
+  </si>
+  <si>
+    <t>A: あの　バスはチョ・ライ病院まだ行きますか。</t>
+  </si>
+  <si>
+    <t>A: ベンタンいちばは７９番のバスですか。</t>
+  </si>
+  <si>
+    <t>B：さぁ、７９番のバスか、分かりません。聞きに行きましょう。</t>
+  </si>
+  <si>
+    <t>１４課</t>
+  </si>
+  <si>
+    <t>私はコンビニへかいに行きます。</t>
+  </si>
+  <si>
+    <t>私は銀行へおろしに行きます。</t>
+  </si>
+  <si>
+    <t>私は図書館へ本を借りに行きます。</t>
+  </si>
+  <si>
+    <t>私は空港へ友達を見送りに行きます。</t>
+  </si>
+  <si>
+    <t>私は市役所へしちょうをあいに行きます。</t>
+  </si>
+  <si>
+    <t>A:あ、（B）さん。今日は勉強に来ましたか。</t>
+  </si>
+  <si>
+    <t>B:いいえ、本を返しに来ました。（A）さんは？</t>
+  </si>
+  <si>
+    <t>A:私はCDを借りに来ました。</t>
+  </si>
+  <si>
+    <t>B:いいえ、音楽を聞きに来ました。（A）さんは？</t>
+  </si>
+  <si>
+    <t>A:私は友達と遭いに来ました。</t>
+  </si>
+  <si>
+    <t>B:いいえ、茶道をしに来ました。（A）さんは？</t>
+  </si>
+  <si>
+    <t>A:私は絵を見に来ました。</t>
+  </si>
+  <si>
+    <t>寂しい時、遊びに行きます。</t>
+  </si>
+  <si>
+    <t>頭が痛い時、病院へ行きます。</t>
+  </si>
+  <si>
+    <t>デート時、コーヒーを飲みます。</t>
+  </si>
+  <si>
+    <t>暇な時,サッカーをしに行きます</t>
+  </si>
+  <si>
+    <t>大使館へ外国人登録に行きます。</t>
+  </si>
+  <si>
+    <t>レストランへ食事に行きます。</t>
+  </si>
+  <si>
+    <t>ベンタン市場へ買い物に行きます。</t>
+  </si>
+  <si>
+    <t>競技場へサッカーに行きます。</t>
+  </si>
+  <si>
+    <t>１６課</t>
+  </si>
+  <si>
+    <t>Vてください。</t>
+  </si>
+  <si>
+    <t>Vないでください。</t>
+  </si>
+  <si>
+    <t>．．．だから、．．．</t>
+  </si>
+  <si>
+    <t>～から～</t>
+  </si>
+  <si>
+    <t>④</t>
+  </si>
+  <si>
+    <t>Vませんか。</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>はい、Vません。</t>
+  </si>
+  <si>
+    <t>いいえ、Vます。</t>
+  </si>
+  <si>
+    <t>⑤</t>
+  </si>
+  <si>
+    <t>N１はN２が</t>
+  </si>
+  <si>
+    <t>多い</t>
+  </si>
+  <si>
+    <t>少ない</t>
+  </si>
+  <si>
+    <t>⑥</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>方</t>
+    </r>
+  </si>
+  <si>
+    <t>Bỏ ます</t>
+  </si>
+  <si>
+    <t>野菜を洗ってください。</t>
+  </si>
+  <si>
+    <t>野菜を切ってください。</t>
+  </si>
+  <si>
+    <t>なべに野菜を入れてください。</t>
+  </si>
+  <si>
+    <t>３０分ににてください。</t>
+  </si>
+  <si>
+    <t>提示食品ディスクをしてください。</t>
+  </si>
+  <si>
+    <t>はとにえさをやらないでください。</t>
+  </si>
+  <si>
+    <t>どうもすみません。</t>
+  </si>
+  <si>
+    <t>ごみないでください。</t>
+  </si>
+  <si>
+    <t>木に登るしないでください。</t>
+  </si>
+  <si>
+    <t>野球をプレイしないでくださ。</t>
+  </si>
+  <si>
+    <t>魚をとるしないでください。</t>
+  </si>
+  <si>
+    <t>枝を壊さないでください。</t>
+  </si>
+  <si>
+    <t>高いです。だから、買いません。</t>
+  </si>
+  <si>
+    <t>熱いです。だから、窓が開けます。</t>
+  </si>
+  <si>
+    <t>買い物が買います。だから、お金がありません。</t>
+  </si>
+  <si>
+    <t>いい天気です。だから、散歩します。</t>
+  </si>
+  <si>
+    <t>私はおうさまですから、並びません。</t>
+  </si>
+  <si>
+    <t>バスは多くの人ですから、席ではありません。</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>（B）さん、どうぞ、上がってください。</t>
+  </si>
+  <si>
+    <t>失礼します。</t>
+  </si>
+  <si>
+    <t>（例）</t>
+  </si>
+  <si>
+    <t>（B）さん、どうぞ、食べてください。</t>
+  </si>
+  <si>
+    <t>（４）</t>
+  </si>
+  <si>
+    <t>（B）さん、どうぞ、入ってください。</t>
+  </si>
+  <si>
+    <t>A）</t>
+  </si>
+  <si>
+    <t>B）</t>
+  </si>
+  <si>
+    <t>C）</t>
+  </si>
+  <si>
+    <t>（B）さん、どうぞ、座ってください。</t>
+  </si>
+  <si>
+    <t>D）</t>
+  </si>
+  <si>
+    <t>（B）さん、どうぞ、このスリップをはいてください。</t>
+  </si>
+  <si>
+    <t>笑わないでください。</t>
+  </si>
+  <si>
+    <t>たべないでください。</t>
+  </si>
+  <si>
+    <t>（６）</t>
+  </si>
+  <si>
+    <t>泣かないでください。</t>
+  </si>
+  <si>
+    <t>押さないでください。</t>
+  </si>
+  <si>
+    <t>怒らないでください。</t>
+  </si>
+  <si>
+    <t>行かないでください。</t>
+  </si>
+  <si>
+    <t>E）</t>
+  </si>
+  <si>
+    <t>F）</t>
+  </si>
+  <si>
+    <t>来ないでください。</t>
+  </si>
+  <si>
+    <t>（５）</t>
+  </si>
+  <si>
+    <t>G）</t>
+  </si>
+  <si>
+    <t>触らないでください。</t>
+  </si>
+  <si>
+    <t>（７）</t>
+  </si>
+  <si>
+    <t>週末に家ですきやきを作りますから、作り方を教えてください。</t>
+  </si>
+  <si>
+    <t>ええ、いいですよ。</t>
+  </si>
+  <si>
+    <t>週末に会社で日本語でメールを書きますから、書き方を教えてください。</t>
+  </si>
+  <si>
+    <t>コビー機を使いますから、使い方を教えてください。</t>
+  </si>
+  <si>
+    <t>クチトンネルへ行きますから、行く方を教えてください。</t>
+  </si>
+  <si>
+    <t>すもうのチケットを買いますから、買い方を教えてください。</t>
+  </si>
+  <si>
+    <t>ダラットは緑が多いです。</t>
+  </si>
+  <si>
+    <t>ダラットは広い道が多いです。</t>
+  </si>
+  <si>
+    <t>ダラットはきれいな花が多いです。</t>
+  </si>
+  <si>
+    <t>ダラットは信号が少ないです。</t>
+  </si>
+  <si>
+    <t>ダラットはきれいな人が多いです。</t>
+  </si>
+  <si>
+    <t>１７課</t>
+  </si>
+  <si>
+    <t>V１てからV２</t>
+  </si>
+  <si>
+    <t>V１る</t>
+  </si>
+  <si>
+    <t>Nの</t>
+  </si>
+  <si>
+    <t>前にV２</t>
+  </si>
+  <si>
+    <t>Vて、（Vて）．．．V</t>
+  </si>
+  <si>
+    <t>持って</t>
+  </si>
+  <si>
+    <t>行きます。</t>
+  </si>
+  <si>
+    <t>来ます。</t>
+  </si>
+  <si>
+    <t>帰ります。</t>
+  </si>
+  <si>
+    <t>新聞を読んでから、テレビを見ます。</t>
+  </si>
+  <si>
+    <t>歯を磨いてから、顔を洗います。</t>
+  </si>
+  <si>
+    <t>シャワーを浴びてから、ご飯を食べます。</t>
+  </si>
+  <si>
+    <t>勉強してから、音楽を聴きます。</t>
+  </si>
+  <si>
+    <t>映画を見てから、買い物を買います。</t>
+  </si>
+  <si>
+    <t>寝る前に、目覚まし時計をセットします。</t>
+  </si>
+  <si>
+    <t>寝る前に、シャワーを浴びます。</t>
+  </si>
+  <si>
+    <t>寝る前に、歯を磨きます。</t>
+  </si>
+  <si>
+    <t>出かける前に、（エアコンを消します）。</t>
+  </si>
+  <si>
+    <t>新幹線に乗る前に、チケットを買います。</t>
+  </si>
+  <si>
+    <t>外国を行く前に、ビザを持って行きます。</t>
+  </si>
+  <si>
+    <t>国に帰る前に、プレセントを買います。</t>
+  </si>
+  <si>
+    <t>宿題をして、お古に入って、寝ます。</t>
+  </si>
+  <si>
+    <t>置きして、顔を洗いて、コーヒーを飲みます。</t>
+  </si>
+  <si>
+    <t>描かれして、買い物を書いて、家へ帰ります。</t>
+  </si>
+  <si>
+    <t>家へ帰って、シャワーを浴びて、ご飯を食べます。</t>
+  </si>
+  <si>
+    <t>（B）さんは新聞を読んでから、テレビを見ますか。</t>
+  </si>
+  <si>
+    <t>はい、新聞を読んでから、テレビを見ます。</t>
+  </si>
+  <si>
+    <t>いいえ、テレビを見てから、新聞を読みます。</t>
+  </si>
+  <si>
+    <t>（B）さんは歯を磨いてから、顔を洗いますか。</t>
+  </si>
+  <si>
+    <t>はい、歯を磨いてから、顔を洗います。</t>
+  </si>
+  <si>
+    <t>いいえ、顔を洗いて、歯を磨きます。</t>
+  </si>
+  <si>
+    <t>（B）さんはシャワーを浴びてから、ご飯を食べますか。</t>
+  </si>
+  <si>
+    <t>はい、シャワーを浴びてから、ご飯を食べます。</t>
+  </si>
+  <si>
+    <t>いいえ、ご飯を食べてから、シャワーを浴びます。</t>
+  </si>
+  <si>
+    <t>（B）さんは勉強してから、音楽を聞きますか。</t>
+  </si>
+  <si>
+    <t>はい、勉強してから、音楽を聞きます。</t>
+  </si>
+  <si>
+    <t>いいえ、音楽を聞いてから、勉強します。</t>
+  </si>
+  <si>
+    <t>（B）さんは映画を見てから、買い物しますか。</t>
+  </si>
+  <si>
+    <t>はい、映画を見てから、買い物します。</t>
+  </si>
+  <si>
+    <t>いいえ、買い物してから、映画を見ます。</t>
+  </si>
+  <si>
+    <t>食事の前に、手を洗います。</t>
+  </si>
+  <si>
+    <t>旅行の前に、パスポートを持って行きます。</t>
+  </si>
+  <si>
+    <t>授業の前に、勉強します。</t>
+  </si>
+  <si>
+    <t>スピーチの前に、???</t>
+  </si>
+  <si>
+    <t>テートの前に、買い物します。</t>
+  </si>
+  <si>
+    <t>たろうさんは海へ行って、かめを助けて、お城へ行きました。</t>
+  </si>
+  <si>
+    <t>たろうさんはおひめさまを会って、ご飯を食べて、魚のおどりを見ます。</t>
+  </si>
+  <si>
+    <t>たろうさんはおひめさまにプレセントをあげて、家へプレセントを持って、．．．</t>
+  </si>
+  <si>
+    <t>すみません、おそくなりました。</t>
+  </si>
+  <si>
+    <t>長い間持ちましたか。</t>
+  </si>
+  <si>
+    <t>いいえ、私も少し前に来ました。</t>
+  </si>
+  <si>
+    <t>地図を持って来ましたか。</t>
+  </si>
+  <si>
+    <t>はい、持って来ました。</t>
+  </si>
+  <si>
+    <t>かさを持って来ましたか。</t>
+  </si>
+  <si>
+    <t>バスのきっぷを持って来ましたか。</t>
+  </si>
+  <si>
+    <t>映画のけんを持って来ましたか。</t>
+  </si>
+  <si>
+    <t>みぶんしょうめいしょのけんを持って来ましたか。</t>
+  </si>
+  <si>
+    <t>１８課</t>
+  </si>
+  <si>
+    <t>Nに乗ります。</t>
+  </si>
+  <si>
+    <t>Nを降ります</t>
+  </si>
+  <si>
+    <t>N１からN２に乗りかえます。</t>
+  </si>
+  <si>
+    <t>Aいさ</t>
+  </si>
+  <si>
+    <t>Nに近いです。</t>
+  </si>
+  <si>
+    <t>Nから遠いです。</t>
+  </si>
+  <si>
+    <t>Vています。</t>
+  </si>
+  <si>
+    <t>山にのぼります。</t>
+  </si>
+  <si>
+    <t>バスに乗ります。</t>
+  </si>
+  <si>
+    <t>自転車に乗ります。</t>
+  </si>
+  <si>
+    <t>タクシーに乗ります。</t>
+  </si>
+  <si>
+    <t>部屋に入ります。</t>
+  </si>
+  <si>
+    <t>浴槽に入ります。</t>
+  </si>
+  <si>
+    <t>大学に入ります。</t>
+  </si>
+  <si>
+    <t>ホテルに泊まります。</t>
+  </si>
+  <si>
+    <t>友達の家に泊まります。</t>
+  </si>
+  <si>
+    <t>町に住みます。</t>
+  </si>
+  <si>
+    <t>日本に住みます。</t>
+  </si>
+  <si>
+    <t>部屋を出ます。</t>
+  </si>
+  <si>
+    <t>バスを降ります。</t>
+  </si>
+  <si>
+    <t>新幹線を降ります。</t>
+  </si>
+  <si>
+    <t>飛行機を降ります。</t>
+  </si>
+  <si>
+    <t>大学を出ます。</t>
+  </si>
+  <si>
+    <t>家を出ます。</t>
+  </si>
+  <si>
+    <t>学校を出ます。</t>
+  </si>
+  <si>
+    <t>ナムさんは今部屋で何をしていますか。</t>
+  </si>
+  <si>
+    <t>ナムさんは今部屋でコーヒーを飲んでいます。</t>
+  </si>
+  <si>
+    <t>ナムさんは今部屋で勉強しています。</t>
+  </si>
+  <si>
+    <t>ナムさんは今部屋でシャワーを浴びています。</t>
+  </si>
+  <si>
+    <t>ナムさんは今部屋でテレビを見ています。</t>
+  </si>
+  <si>
+    <t>ナムさんは今部屋で本を読んでいます。</t>
+  </si>
+  <si>
+    <t>この人はどこに住んでいますか。</t>
+  </si>
+  <si>
+    <t>この人はホーチミンに住んでいます。</t>
+  </si>
+  <si>
+    <t>この人はどこに働いていますか。</t>
+  </si>
+  <si>
+    <t>この人は日本の会社に働いています。</t>
+  </si>
+  <si>
+    <t>この人はどこに教えっていますか。</t>
+  </si>
+  <si>
+    <t>この人は中学校に教えっています。</t>
+  </si>
+  <si>
+    <t>この人はどこに絵を習っていますか。</t>
+  </si>
+  <si>
+    <t>この人は青年文化会館に絵を習っています。</t>
+  </si>
+  <si>
+    <t>この人はどこに勉強していますか。</t>
+  </si>
+  <si>
+    <t>この人はドンズー学校に勉強しています。</t>
+  </si>
+  <si>
+    <t>鳥が飛んでいますか。</t>
+  </si>
+  <si>
+    <t>いいえ、飛んでいません。</t>
+  </si>
+  <si>
+    <t>子どもが歩いていますか。</t>
+  </si>
+  <si>
+    <t>いいえ、歩いていません。</t>
+  </si>
+  <si>
+    <t>彼が結婚していますか。</t>
+  </si>
+  <si>
+    <t>いいえ、結婚しません。</t>
+  </si>
+  <si>
+    <t>彼女が走っていますか。</t>
+  </si>
+  <si>
+    <t>いいえ、走っていません。</t>
+  </si>
+  <si>
+    <t>雨が降っていますか。</t>
+  </si>
+  <si>
+    <t>いいえ、降っていません。</t>
+  </si>
+  <si>
+    <t>大仏の高さはどのぐらいですか。</t>
+  </si>
+  <si>
+    <t>大仏の高さは１２ｍぐらいです。</t>
+  </si>
+  <si>
+    <t>本の厚さはどのぐらいですか。</t>
+  </si>
+  <si>
+    <t>本の厚さは１５ｃｍぐらいです。</t>
+  </si>
+  <si>
+    <t>箱の重さはどのぐらいですか。</t>
+  </si>
+  <si>
+    <t>箱の重さは５ｋｇぐらいです。</t>
+  </si>
+  <si>
+    <t>木の太さはどのぐらいですか。</t>
+  </si>
+  <si>
+    <t>木の太さは３ｍぐらいです。</t>
+  </si>
+  <si>
+    <t>橋の長さはどのぐらいですか。</t>
+  </si>
+  <si>
+    <t>橋の長さは２ｍぐらいです。</t>
+  </si>
+  <si>
+    <t>１９課</t>
+  </si>
+  <si>
+    <t>N１にN２をV</t>
+  </si>
+  <si>
+    <t>N１からN２をV</t>
+  </si>
+  <si>
+    <t>V１た</t>
+  </si>
+  <si>
+    <t>後で、V２</t>
+  </si>
+  <si>
+    <t>V１たり、V２たりします。</t>
+  </si>
+  <si>
+    <t>夏休みに海で泳いだり、ぼんおどりをしたりします。</t>
+  </si>
+  <si>
+    <t>旅行の前に地図を買いたり、ホテル予約いたりします。</t>
+  </si>
+  <si>
+    <t>引越しの前に掃除したり、．．．</t>
+  </si>
+  <si>
+    <t>今からカラオケに行きますか。</t>
+  </si>
+  <si>
+    <t>いいえ、散歩に後で、行きます。</t>
+  </si>
+  <si>
+    <t>いいえ、買い物に後で、行きます。</t>
+  </si>
+  <si>
+    <t>いいえ、ご飯を食べるに後で、行きます。</t>
+  </si>
+  <si>
+    <t>泳いだ後で友達と会います。</t>
+  </si>
+  <si>
+    <t>散歩した後で勉強します。</t>
+  </si>
+  <si>
+    <t>送った後で、喫茶店へ行きます。</t>
+  </si>
+  <si>
+    <t>起きた後で、大学へ行きます。</t>
+  </si>
+  <si>
+    <t>研究発表の前に、何をしますか。</t>
+  </si>
+  <si>
+    <t>資料を集めたり、論文を読んだりします。</t>
+  </si>
+  <si>
+    <t>デートの前に、何をしますか。</t>
+  </si>
+  <si>
+    <t>プランをセットしたり、シャワーを浴びたりします。</t>
+  </si>
+  <si>
+    <t>コンビニで何をしますか。</t>
+  </si>
+  <si>
+    <t>買い物を買います。</t>
+  </si>
+  <si>
+    <t>子供の時、どんなお手伝いをしましたか。</t>
+  </si>
+  <si>
+    <t>．．．</t>
+  </si>
+  <si>
+    <t>テストを出します。</t>
+  </si>
+  <si>
+    <t>電車を降ります。</t>
+  </si>
+  <si>
+    <t>忘れ物に気がつきました。</t>
+  </si>
+  <si>
+    <t>ご飯を食べます。</t>
+  </si>
+  <si>
+    <t>恋人とわかれます。</t>
+  </si>
+  <si>
+    <t>授業が終わります。</t>
+  </si>
+  <si>
+    <t>テレビを見ます。</t>
+  </si>
+  <si>
+    <t>今の彼／彼女に会います。</t>
+  </si>
+  <si>
+    <t>すぐ家へ帰ります。</t>
+  </si>
+  <si>
+    <t>答えを思い出しました。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,6 +2290,19 @@
     </font>
     <font>
       <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1246,7 +2415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1262,6 +2431,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1563,11 +2736,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1582,22 +2753,44 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1612,14 +2805,11 @@
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1635,11 +2825,12 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>243</v>
+        <v>387</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1656,11 +2847,11 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>244</v>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1683,34 +2874,1053 @@
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>245</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O82"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1718,82 +3928,550 @@
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1804,11 +4482,621 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+      <c r="D32" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="6"/>
+      <c r="D33" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P72"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1823,7 +5111,2630 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="6"/>
+      <c r="D28" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P77"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P59"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="14"/>
+      <c r="D23" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="14"/>
+      <c r="D29" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="1"/>
+    <col min="13" max="15" width="9.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="14"/>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1860,7 +7771,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1876,8 +7787,11 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1893,11 +7807,12 @@
       <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>28</v>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1913,8 +7828,243 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1935,7 +8085,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1954,7 +8104,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1975,7 +8125,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1994,7 +8144,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -2017,12 +8167,12 @@
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2030,12 +8180,12 @@
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -2043,13 +8193,13 @@
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -2057,13 +8207,13 @@
         <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -2071,13 +8221,13 @@
         <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -2085,13 +8235,13 @@
         <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
       <c r="D24" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -2102,7 +8252,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -2110,7 +8260,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -2118,7 +8268,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -2126,7 +8276,7 @@
         <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -2137,7 +8287,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -2145,7 +8295,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -2153,7 +8303,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -2161,7 +8311,7 @@
         <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -2180,12 +8330,12 @@
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -2193,12 +8343,12 @@
         <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -2206,12 +8356,12 @@
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -2219,12 +8369,12 @@
         <v>62</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -2232,12 +8382,12 @@
         <v>66</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -2245,7 +8395,7 @@
         <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -2262,13 +8412,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68:D69"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3389,12 +9537,12 @@
         <v>32</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>27</v>
@@ -3403,7 +9551,7 @@
         <v>32</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
@@ -3422,7 +9570,7 @@
         <v>32</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
@@ -3430,7 +9578,7 @@
         <v>34</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
@@ -3441,7 +9589,7 @@
         <v>32</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
@@ -3449,7 +9597,7 @@
         <v>34</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
@@ -3460,7 +9608,7 @@
         <v>32</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
@@ -3475,993 +9623,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O82"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C67" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C74" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C78" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C80" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C81" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>